--- a/ПЛА/ПЛА без мех ходка/ПРИЛОЖЕНИЕ ПЛА/СВОДНЫЙ ГРАФИК.xlsx
+++ b/ПЛА/ПЛА без мех ходка/ПРИЛОЖЕНИЕ ПЛА/СВОДНЫЙ ГРАФИК.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>10 ВГСО</t>
   </si>
@@ -218,9 +218,6 @@
     <t>______________ С.Н. Голуб</t>
   </si>
   <si>
-    <t>"___"______________2016г.</t>
-  </si>
-  <si>
     <t>График приобретения регенеративных патронов к учебным самоспасателям</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>График тренировки на полигоне</t>
-  </si>
-  <si>
-    <t>График приобретения учебных самоспасателей ШСС - 1П</t>
   </si>
   <si>
     <t>График приобретения изолирующих самоспасателей ШСС - 1П</t>
@@ -615,22 +609,31 @@
     <t>ОП "Шахта "Центральная"</t>
   </si>
   <si>
-    <t>______________ Ю. В. ПАКИН</t>
-  </si>
-  <si>
-    <t>мероприятий по улучшению противоаварийной подготовленности по ОП "Шахта "Центральная" ГП "Красноармейскуголь" на 2017г.</t>
-  </si>
-  <si>
-    <t>Главный механик                                                                                                                                                                                  К. А. Шейко</t>
-  </si>
-  <si>
     <t>Заместитель директора по ОТ                                                                                                                                                           В. Е. Петрушенко</t>
   </si>
   <si>
-    <t>Начальник участка ВТБ                                                                                                                                                                       В. Н. Молодоженя</t>
-  </si>
-  <si>
     <t>Помощник командира 10 ВГСО                                                                                                                                                        А. С. Чорный</t>
+  </si>
+  <si>
+    <t>"___"______________2017г.</t>
+  </si>
+  <si>
+    <t>ГП "Мирноградуголь"</t>
+  </si>
+  <si>
+    <t>______________ А.В. Суржанский</t>
+  </si>
+  <si>
+    <t>мероприятий по улучшению противоаварийной подготовленности по ОП "Шахта "Центральная" ГП "Мирноградуголь" на 2018 г.</t>
+  </si>
+  <si>
+    <t>Главный механик                                                                                                                                                                                  Н. А. Киктев</t>
+  </si>
+  <si>
+    <t>Начальник участка ВТБ                                                                                                                                                                       О. В. Онищенко</t>
+  </si>
+  <si>
+    <t>График приобретения учебных самоспасателей ШСС - 1Т</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,6 +1898,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2035,6 +2041,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2323,8 +2332,8 @@
   </sheetPr>
   <dimension ref="A1:P341"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="70" zoomScaleNormal="82" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScale="85" zoomScaleNormal="82" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,11 +2381,11 @@
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2394,11 +2403,11 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
-      <c r="M3" s="190" t="s">
+      <c r="M3" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2415,7 +2424,7 @@
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N4" s="182"/>
       <c r="O4" s="182"/>
@@ -2437,7 +2446,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="182" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="N5" s="182"/>
       <c r="O5" s="182"/>
@@ -2456,17 +2465,17 @@
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="189" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" s="189"/>
-      <c r="O6" s="189"/>
+      <c r="M6" s="190" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="190"/>
+      <c r="O6" s="190"/>
       <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="26" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2496,11 +2505,11 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="189" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
+      <c r="M8" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="190"/>
+      <c r="O8" s="190"/>
       <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2522,44 +2531,44 @@
       <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
+      <c r="A10" s="192" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
+      <c r="A11" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -2580,37 +2589,37 @@
       <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="187" t="s">
+      <c r="A13" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="193" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="187" t="s">
+      <c r="D13" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="188" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="187"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="25" t="s">
         <v>45</v>
       </c>
@@ -2647,170 +2656,170 @@
       <c r="O14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="187"/>
+      <c r="P14" s="188"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="22">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E15" s="22">
+        <v>18</v>
+      </c>
+      <c r="F15" s="22">
+        <v>5</v>
+      </c>
+      <c r="G15" s="22">
+        <v>5</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>40</v>
+      </c>
+      <c r="L15" s="22">
+        <v>19</v>
+      </c>
+      <c r="M15" s="22">
+        <v>5</v>
+      </c>
+      <c r="N15" s="22">
         <v>17</v>
       </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>9</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>2</v>
-      </c>
-      <c r="K15" s="22">
-        <v>11</v>
-      </c>
-      <c r="L15" s="22">
-        <v>7</v>
-      </c>
-      <c r="M15" s="22">
-        <v>6</v>
-      </c>
-      <c r="N15" s="22">
-        <v>13</v>
-      </c>
       <c r="O15" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P15" s="113">
         <f>SUM(D15:O15)</f>
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="22">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E16" s="22">
+        <v>18</v>
+      </c>
+      <c r="F16" s="22">
+        <v>5</v>
+      </c>
+      <c r="G16" s="22">
+        <v>5</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>3</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>40</v>
+      </c>
+      <c r="L16" s="22">
+        <v>19</v>
+      </c>
+      <c r="M16" s="22">
+        <v>5</v>
+      </c>
+      <c r="N16" s="22">
         <v>17</v>
       </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>9</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>2</v>
-      </c>
-      <c r="K16" s="22">
-        <v>11</v>
-      </c>
-      <c r="L16" s="22">
-        <v>7</v>
-      </c>
-      <c r="M16" s="22">
-        <v>6</v>
-      </c>
-      <c r="N16" s="22">
-        <v>13</v>
-      </c>
       <c r="O16" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P16" s="113">
         <f t="shared" ref="P16:P43" si="0">SUM(D16:O16)</f>
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H17" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I17" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J17" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" s="22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L17" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17" s="22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N17" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O17" s="22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P17" s="113">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="22">
         <v>0</v>
@@ -2819,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="22">
         <v>0</v>
@@ -2828,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J18" s="22">
         <v>0</v>
@@ -2837,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M18" s="22">
         <v>0</v>
@@ -2855,13 +2864,13 @@
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="22">
         <v>10</v>
@@ -2906,67 +2915,67 @@
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D20" s="22">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E20" s="22">
+        <v>18</v>
+      </c>
+      <c r="F20" s="22">
+        <v>5</v>
+      </c>
+      <c r="G20" s="22">
+        <v>5</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>3</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22">
+        <v>40</v>
+      </c>
+      <c r="L20" s="22">
+        <v>19</v>
+      </c>
+      <c r="M20" s="22">
+        <v>5</v>
+      </c>
+      <c r="N20" s="22">
         <v>17</v>
       </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>9</v>
-      </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
-        <v>2</v>
-      </c>
-      <c r="K20" s="22">
-        <v>11</v>
-      </c>
-      <c r="L20" s="22">
-        <v>7</v>
-      </c>
-      <c r="M20" s="22">
-        <v>6</v>
-      </c>
-      <c r="N20" s="22">
-        <v>13</v>
-      </c>
       <c r="O20" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" s="113">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="22">
         <v>1</v>
@@ -2996,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22">
         <v>0</v>
@@ -3008,13 +3017,13 @@
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="22">
         <v>1</v>
@@ -3047,34 +3056,34 @@
         <v>1</v>
       </c>
       <c r="N22" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="113">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="22">
         <v>0</v>
@@ -3105,48 +3114,48 @@
       </c>
       <c r="P23" s="113">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" s="22">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
         <v>4</v>
-      </c>
-      <c r="E24" s="22">
-        <v>4</v>
-      </c>
-      <c r="F24" s="22">
-        <v>5</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <v>0</v>
       </c>
       <c r="N24" s="22">
         <v>0</v>
@@ -3156,18 +3165,18 @@
       </c>
       <c r="P24" s="113">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="22">
         <v>40</v>
@@ -3194,133 +3203,133 @@
         <v>40</v>
       </c>
       <c r="L25" s="22">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M25" s="22">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N25" s="22">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O25" s="22">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="P25" s="113">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="E26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="F26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L26" s="22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M26" s="22">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="N26" s="22">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="O26" s="22">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="P26" s="113">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40.230000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="L27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="M27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P27" s="113">
         <f t="shared" si="0"/>
-        <v>0.47999999999999993</v>
+        <v>0.42999999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D28" s="22">
         <v>0</v>
@@ -3353,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="22">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
         <v>1</v>
-      </c>
-      <c r="O28" s="22">
-        <v>0</v>
       </c>
       <c r="P28" s="113">
         <f t="shared" si="0"/>
@@ -3365,85 +3374,85 @@
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="22">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E29" s="22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F29" s="22">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G29" s="22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H29" s="22">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I29" s="22">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="J29" s="22">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="K29" s="22">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="L29" s="22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M29" s="22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N29" s="22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P29" s="113">
         <f t="shared" si="0"/>
-        <v>504</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="22">
         <v>0</v>
       </c>
       <c r="E30" s="22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F30" s="22">
         <v>0</v>
       </c>
       <c r="G30" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I30" s="22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J30" s="22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K30" s="22">
         <v>0</v>
@@ -3462,138 +3471,138 @@
       </c>
       <c r="P30" s="113">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="22">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E31" s="22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F31" s="22">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G31" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I31" s="22">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J31" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K31" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L31" s="22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M31" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N31" s="22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O31" s="22">
-        <v>30</v>
-      </c>
-      <c r="P31" s="113">
+        <v>22</v>
+      </c>
+      <c r="P31" s="234">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D32" s="22">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E32" s="22">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="22">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H32" s="22">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I32" s="22">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="J32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.3</v>
       </c>
       <c r="K32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.3</v>
       </c>
       <c r="L32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.3</v>
       </c>
       <c r="M32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.3</v>
       </c>
       <c r="N32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="O32" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="P32" s="113">
         <f t="shared" si="0"/>
-        <v>1.3799999999999997</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D33" s="22">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E33" s="22">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F33" s="22">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G33" s="22">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H33" s="22">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="22">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="22">
         <v>0</v>
@@ -3615,18 +3624,18 @@
       </c>
       <c r="P33" s="113">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D34" s="22">
         <v>0</v>
@@ -3671,13 +3680,13 @@
     </row>
     <row r="35" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D35" s="22">
         <v>0</v>
@@ -3686,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G35" s="22">
         <v>0</v>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J35" s="22">
         <v>0</v>
@@ -3704,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M35" s="22">
         <v>0</v>
@@ -3713,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P35" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58500000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" s="22">
         <v>0</v>
@@ -3743,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I36" s="22">
         <v>0</v>
@@ -3768,18 +3777,18 @@
       </c>
       <c r="P36" s="113">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D37" s="22">
         <v>0</v>
@@ -3794,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I37" s="22">
         <v>0</v>
@@ -3819,30 +3828,30 @@
       </c>
       <c r="P37" s="113">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D38" s="22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F38" s="22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G38" s="22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H38" s="22">
         <v>0</v>
@@ -3866,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P38" s="113">
         <f t="shared" si="0"/>
@@ -3875,28 +3884,28 @@
     </row>
     <row r="39" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D39" s="22">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E39" s="22">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F39" s="22">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G39" s="22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I39" s="22">
         <v>0</v>
@@ -3905,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L39" s="22">
         <v>0</v>
@@ -3921,93 +3930,93 @@
       </c>
       <c r="P39" s="113">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D40" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K40" s="22">
         <v>0</v>
       </c>
       <c r="L40" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M40" s="22">
         <v>0</v>
       </c>
       <c r="N40" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O40" s="22">
         <v>0</v>
       </c>
       <c r="P40" s="113">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41" s="22">
         <v>0</v>
       </c>
       <c r="E41" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" s="22">
         <v>0</v>
       </c>
       <c r="K41" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="22">
         <v>0</v>
@@ -4023,69 +4032,69 @@
       </c>
       <c r="P41" s="113">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D42" s="22">
         <v>0</v>
       </c>
       <c r="E42" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42" s="22">
         <v>0</v>
       </c>
       <c r="J42" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="22">
         <v>0</v>
       </c>
       <c r="L42" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M42" s="22">
         <v>0</v>
       </c>
       <c r="N42" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O42" s="22">
         <v>0</v>
       </c>
-      <c r="P42" s="113">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="P42" s="186">
+        <f t="shared" ref="P42" si="1">SUM(D42:O42)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D43" s="22">
         <v>0</v>
@@ -4103,22 +4112,22 @@
         <v>1</v>
       </c>
       <c r="I43" s="22">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>0</v>
+      </c>
+      <c r="N43" s="22">
         <v>1</v>
-      </c>
-      <c r="J43" s="22">
-        <v>0</v>
-      </c>
-      <c r="K43" s="22">
-        <v>0</v>
-      </c>
-      <c r="L43" s="22">
-        <v>0</v>
-      </c>
-      <c r="M43" s="22">
-        <v>0</v>
-      </c>
-      <c r="N43" s="22">
-        <v>0</v>
       </c>
       <c r="O43" s="22">
         <v>0</v>
@@ -4202,22 +4211,22 @@
     </row>
     <row r="48" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="183"/>
-      <c r="B48" s="186" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="186"/>
-      <c r="L48" s="186"/>
-      <c r="M48" s="186"/>
-      <c r="N48" s="186"/>
-      <c r="O48" s="186"/>
+      <c r="B48" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="187"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="187"/>
       <c r="P48" s="18"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -4276,22 +4285,22 @@
     </row>
     <row r="52" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="183"/>
-      <c r="B52" s="186" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="186"/>
-      <c r="L52" s="186"/>
-      <c r="M52" s="186"/>
-      <c r="N52" s="186"/>
-      <c r="O52" s="186"/>
+      <c r="B52" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="187"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="187"/>
+      <c r="O52" s="187"/>
       <c r="P52" s="18"/>
     </row>
     <row r="53" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -4350,22 +4359,22 @@
     </row>
     <row r="56" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="183"/>
-      <c r="B56" s="186" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="186"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="186"/>
-      <c r="K56" s="186"/>
-      <c r="L56" s="186"/>
-      <c r="M56" s="186"/>
-      <c r="N56" s="186"/>
-      <c r="O56" s="186"/>
+      <c r="B56" s="187" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="187"/>
+      <c r="D56" s="187"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="187"/>
+      <c r="J56" s="187"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="187"/>
+      <c r="M56" s="187"/>
+      <c r="N56" s="187"/>
+      <c r="O56" s="187"/>
       <c r="P56" s="20"/>
     </row>
     <row r="57" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -4424,22 +4433,22 @@
     </row>
     <row r="60" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="183"/>
-      <c r="B60" s="186" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="186"/>
-      <c r="I60" s="186"/>
-      <c r="J60" s="186"/>
-      <c r="K60" s="186"/>
-      <c r="L60" s="186"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="186"/>
+      <c r="B60" s="187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
+      <c r="I60" s="187"/>
+      <c r="J60" s="187"/>
+      <c r="K60" s="187"/>
+      <c r="L60" s="187"/>
+      <c r="M60" s="187"/>
+      <c r="N60" s="187"/>
+      <c r="O60" s="187"/>
       <c r="P60" s="20"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -10051,97 +10060,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="203" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="202" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
+      <c r="A5" s="204" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="197" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="206" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="205"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="E8" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="196" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="205" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="196" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="204"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="196" t="s">
+      <c r="F8" s="200"/>
+      <c r="G8" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="198" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="199"/>
-      <c r="G8" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="204"/>
+      <c r="H8" s="205"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="197"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="201"/>
-      <c r="H9" s="197"/>
+        <v>129</v>
+      </c>
+      <c r="G9" s="202"/>
+      <c r="H9" s="198"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
@@ -11631,68 +11640,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="Q1" s="202" t="s">
+      <c r="Q1" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="Q2" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="204" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="Q2" s="202" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="204" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
@@ -11717,46 +11726,46 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="196" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="209" t="s">
+      <c r="A6" s="197" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="197" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="210" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="201" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="200" t="s">
+      <c r="R6" s="201" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="200" t="s">
+      <c r="S6" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="R6" s="200" t="s">
+      <c r="T6" s="201" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="200" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="200" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="198"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="92">
         <v>1</v>
       </c>
@@ -11794,13 +11803,13 @@
         <v>12</v>
       </c>
       <c r="O7" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="201"/>
-      <c r="R7" s="201"/>
-      <c r="S7" s="201"/>
-      <c r="T7" s="201"/>
+        <v>128</v>
+      </c>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
@@ -14462,90 +14471,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+    </row>
+    <row r="2" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="214" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="219" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-    </row>
-    <row r="2" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="213" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="215" t="s">
+      <c r="D2" s="221" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="218" t="s">
+      <c r="E2" s="222"/>
+      <c r="F2" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="220" t="s">
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="222"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="215"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="221"/>
-      <c r="F2" s="222" t="s">
+      <c r="E3" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="221"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="214"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="224" t="s">
+      <c r="F3" s="225" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="G3" s="230" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="H3" s="230" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="229" t="s">
+      <c r="I3" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="229" t="s">
+      <c r="J3" s="228" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="231" t="s">
+      <c r="K3" s="228" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="227" t="s">
+      <c r="L3" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="227" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="227" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -14872,7 +14881,7 @@
     <row r="16" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="5">SUM(C17:C20)</f>
@@ -14996,7 +15005,7 @@
     <row r="22" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:L22" si="6">SUM(C23:C26)</f>
@@ -15120,7 +15129,7 @@
     <row r="28" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3">
         <f>SUM(C29:C30)</f>
@@ -15258,7 +15267,7 @@
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
       <c r="B33" s="117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="147"/>
       <c r="D33" s="147"/>
@@ -15274,7 +15283,7 @@
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="116"/>
       <c r="B34" s="117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" s="147"/>
       <c r="D34" s="147"/>
@@ -15290,7 +15299,7 @@
     <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116"/>
       <c r="B35" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
@@ -15306,7 +15315,7 @@
     <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="116"/>
       <c r="B36" s="117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -15336,7 +15345,7 @@
     <row r="38" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3">
         <f>SUM(C39:C43)</f>
@@ -15382,7 +15391,7 @@
     <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="151"/>
       <c r="B39" s="137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -15398,7 +15407,7 @@
     <row r="40" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="151"/>
       <c r="B40" s="137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -15414,7 +15423,7 @@
     <row r="41" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="151"/>
       <c r="B41" s="137" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -15430,7 +15439,7 @@
     <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="151"/>
       <c r="B42" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="125"/>
       <c r="D42" s="125"/>
@@ -15446,7 +15455,7 @@
     <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="151"/>
       <c r="B43" s="137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C43" s="125"/>
       <c r="D43" s="125"/>
@@ -15476,7 +15485,7 @@
     <row r="45" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" ref="C45:L45" si="10">SUM(C46:C48)</f>
@@ -15522,7 +15531,7 @@
     <row r="46" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="157"/>
       <c r="B46" s="135" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" s="158"/>
       <c r="D46" s="158"/>
@@ -15538,7 +15547,7 @@
     <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="157"/>
       <c r="B47" s="161" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" s="158"/>
       <c r="D47" s="158"/>
@@ -15554,7 +15563,7 @@
     <row r="48" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="157"/>
       <c r="B48" s="162" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" s="158"/>
       <c r="D48" s="158"/>
@@ -15584,7 +15593,7 @@
     <row r="50" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="3">
         <f>SUM(C51:C54)</f>
@@ -15630,7 +15639,7 @@
     <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="163"/>
       <c r="B51" s="135" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="125"/>
       <c r="D51" s="125"/>
@@ -15646,7 +15655,7 @@
     <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="163"/>
       <c r="B52" s="135" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C52" s="125"/>
       <c r="D52" s="125"/>
@@ -15678,7 +15687,7 @@
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="168"/>
       <c r="B54" s="169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C54" s="170"/>
       <c r="D54" s="170"/>
